--- a/biology/Zoologie/Galemys/Galemys.xlsx
+++ b/biology/Zoologie/Galemys/Galemys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galemys est un genre de mammifères de la famille des Talpidés (Talpidae). Il ne subsiste qu'une seule espèce actuelle de ce genre : le Desman des Pyrénées (Galemys pyrenaicus), les autres sont des restes fossiles.
 Les desmans sont des animaux menacés, qui font penser à des taupes nageuses, et dont on ne rencontre plus que deux espèces vivantes, avec celle du genre voisin, le Desman de Moscovie (Desmana moschata).
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1829 par le naturaliste allemand Johann Jakob Kaup (1803-1873)[1].
-Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Desmanini ; genre Galemys[1].
-Traditionnellement, les espèces de Talpidés sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1829 par le naturaliste allemand Johann Jakob Kaup (1803-1873).
+Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Desmanini ; genre Galemys.
+Traditionnellement, les espèces de Talpidés sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle. 
 </t>
         </is>
       </c>
@@ -547,11 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèce actuelle
-Selon Catalogue of Life                                   (13 avril 2015)[3],  ITIS      (13 avril 2015)[1], Mammal Species of the World (version 3, 2005)  (13 avril 2015)[2], NCBI  (13 avril 2015)[4] :
-Galemys pyrenaicus (É. Geoffroy Saint-Hilaire, 1811) - Le Desman des Pyrénées
-Espèces répertoriées
-Selon Paleobiology Database                   (13 avril 2015)[5] :
+          <t>Espèce actuelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (13 avril 2015),  ITIS      (13 avril 2015), Mammal Species of the World (version 3, 2005)  (13 avril 2015), NCBI  (13 avril 2015) :
+Galemys pyrenaicus (É. Geoffroy Saint-Hilaire, 1811) - Le Desman des Pyrénées</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Galemys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galemys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces répertoriées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (13 avril 2015) :
 † Galemys kormosi
 Galemys pyrenaicus - Le Desman des Pyrénées
 † Galemys semseyi
